--- a/Output/SLICC_data_mITT.xlsx
+++ b/Output/SLICC_data_mITT.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:AW53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,6 +428,181 @@
           <t>slicc_score</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>anti_DsDNA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>anti_Smith</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_fever</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_AcuteCutLupus</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_SubAcuteCutorDiscLupus</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_OralUlcers</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_Alopecia</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_NoMuco</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_synovitis</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_arthralgia</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_nojoint</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_seizure</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_psychosis</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_delirium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_none</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_acutepericarditis</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_pleuralorpericardialeffusion</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_noserositis</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_hemolyticAnemia</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_thrombocytopenia</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_leucopenia</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_nohematology</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_class3or4nephritis</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_class2or5nephritis</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_proteinuria</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_nonephrologic</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_antibeta2glykoprotein</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_lupusanticoagulant</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_anticardiolipins</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_noantiphospholipids</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_lowC3andC4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_lowC3orC4</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_cat_normalC3andC4</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_antidsdna</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>slicc_antismith</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,25 +639,132 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
-      <c r="K2">
-        <v>2</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="L2">
         <v>4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +808,126 @@
       <c r="J3">
         <v>10</v>
       </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N3">
         <v>38</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -582,19 +971,126 @@
       <c r="J4">
         <v>4</v>
       </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N4">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -638,19 +1134,126 @@
       <c r="J5">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N5">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,19 +1297,126 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>2</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -750,19 +1460,126 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7">
         <v>21</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -806,19 +1623,126 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N8">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -856,14 +1780,16 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L9">
         <v>4</v>
@@ -874,7 +1800,112 @@
         </is>
       </c>
       <c r="N9">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -912,14 +1943,16 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L10">
         <v>0</v>
@@ -930,7 +1963,112 @@
         </is>
       </c>
       <c r="N10">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -968,25 +2106,132 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2	3</t>
         </is>
       </c>
       <c r="J11">
         <v>8</v>
       </c>
-      <c r="K11">
-        <v>2</v>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1	3	4</t>
+        </is>
       </c>
       <c r="L11">
         <v>4</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1030,8 +2275,10 @@
       <c r="J12">
         <v>4</v>
       </c>
-      <c r="K12">
-        <v>0</v>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1043,6 +2290,111 @@
       </c>
       <c r="N12">
         <v>27</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1086,8 +2438,10 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1099,6 +2453,111 @@
       </c>
       <c r="N13">
         <v>14</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1136,25 +2595,132 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4	4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14">
-        <v>2</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N14">
         <v>40</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1198,8 +2764,10 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1211,6 +2779,111 @@
       </c>
       <c r="N15">
         <v>15</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1254,19 +2927,126 @@
       <c r="J16">
         <v>10</v>
       </c>
-      <c r="K16">
-        <v>2</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L16">
         <v>4</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N16">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="b">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1304,25 +3084,132 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3	4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
-      <c r="K17">
-        <v>2</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L17">
         <v>4</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1	2</t>
         </is>
       </c>
       <c r="N17">
         <v>43</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="b">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1366,19 +3253,126 @@
       <c r="J18">
         <v>10</v>
       </c>
-      <c r="K18">
-        <v>2</v>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="L18">
         <v>4</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1	2</t>
         </is>
       </c>
       <c r="N18">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1422,19 +3416,126 @@
       <c r="J19">
         <v>4</v>
       </c>
-      <c r="K19">
-        <v>2</v>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L19">
         <v>4</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N19">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1478,8 +3579,10 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L20">
         <v>3</v>
@@ -1491,6 +3594,111 @@
       </c>
       <c r="N20">
         <v>15</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1534,19 +3742,126 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>2</v>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1	3	4</t>
+        </is>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N21">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1590,19 +3905,126 @@
       <c r="J22">
         <v>8</v>
       </c>
-      <c r="K22">
-        <v>0</v>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N22">
         <v>35</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1646,8 +4068,10 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1658,7 +4082,112 @@
         </is>
       </c>
       <c r="N23">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1702,8 +4231,10 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1715,6 +4246,111 @@
       </c>
       <c r="N24">
         <v>17</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1758,8 +4394,10 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1770,7 +4408,112 @@
         </is>
       </c>
       <c r="N25">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1814,19 +4557,126 @@
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>2</v>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1	3	4</t>
+        </is>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N26">
         <v>20</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1864,25 +4714,132 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4	4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27">
         <v>4</v>
       </c>
-      <c r="K27">
-        <v>0</v>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L27">
         <v>4</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1	2</t>
         </is>
       </c>
       <c r="N27">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1920,25 +4877,132 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4	4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J28">
         <v>10</v>
       </c>
-      <c r="K28">
-        <v>2</v>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1	3	4</t>
+        </is>
       </c>
       <c r="L28">
         <v>4</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N28">
         <v>34</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1976,25 +5040,132 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4	4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>2</v>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1	4</t>
+        </is>
       </c>
       <c r="L29">
         <v>4</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N29">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2038,19 +5209,126 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N30">
         <v>16</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2094,19 +5372,126 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>0</v>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N31">
         <v>18</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2150,19 +5535,126 @@
       <c r="J32">
         <v>10</v>
       </c>
-      <c r="K32">
-        <v>2</v>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1	4</t>
+        </is>
       </c>
       <c r="L32">
         <v>4</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N32">
         <v>30</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2206,19 +5698,126 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33">
-        <v>0</v>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L33">
         <v>4</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N33">
         <v>27</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" t="b">
+        <v>0</v>
+      </c>
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2262,19 +5861,126 @@
       <c r="J34">
         <v>10</v>
       </c>
-      <c r="K34">
-        <v>0</v>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L34">
         <v>4</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N34">
         <v>34</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2312,25 +6018,132 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4	4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35">
-        <v>0</v>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N35">
         <v>28</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2368,25 +6181,132 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36">
         <v>4</v>
       </c>
-      <c r="K36">
-        <v>2</v>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="L36">
         <v>4</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N36">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2430,19 +6350,126 @@
       <c r="J37">
         <v>4</v>
       </c>
-      <c r="K37">
-        <v>0</v>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N37">
         <v>18</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="V37" t="b">
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2486,19 +6513,126 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38">
-        <v>2</v>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="b">
+        <v>0</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2542,19 +6676,126 @@
       <c r="J39">
         <v>4</v>
       </c>
-      <c r="K39">
-        <v>0</v>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L39">
         <v>4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N39">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+      <c r="W39" t="b">
+        <v>1</v>
+      </c>
+      <c r="X39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2598,19 +6839,126 @@
       <c r="J40">
         <v>4</v>
       </c>
-      <c r="K40">
-        <v>2</v>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1	3	4</t>
+        </is>
       </c>
       <c r="L40">
         <v>4</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N40">
         <v>36</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2651,16 +6999,129 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K41">
-        <v>2</v>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6	6</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41">
+        <v>22</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" t="b">
+        <v>1</v>
+      </c>
+      <c r="U41" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2698,25 +7159,132 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3	4	4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42">
-        <v>0</v>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L42">
         <v>4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N42">
         <v>26</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2760,8 +7328,10 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43">
-        <v>0</v>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L43">
         <v>3</v>
@@ -2773,6 +7343,111 @@
       </c>
       <c r="N43">
         <v>17</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="b">
+        <v>0</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2816,19 +7491,126 @@
       <c r="J44">
         <v>10</v>
       </c>
-      <c r="K44">
-        <v>0</v>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N44">
         <v>23</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2872,8 +7654,10 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45">
-        <v>0</v>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L45">
         <v>3</v>
@@ -2885,6 +7669,111 @@
       </c>
       <c r="N45">
         <v>19</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="b">
+        <v>1</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="b">
+        <v>0</v>
+      </c>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2928,19 +7817,126 @@
       <c r="J46">
         <v>10</v>
       </c>
-      <c r="K46">
-        <v>2</v>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1	3	4</t>
+        </is>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N46">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+      <c r="S46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+      <c r="X46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2984,8 +7980,10 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47">
-        <v>0</v>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L47">
         <v>3</v>
@@ -2997,6 +7995,111 @@
       </c>
       <c r="N47">
         <v>17</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
+      </c>
+      <c r="R47" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="b">
+        <v>0</v>
+      </c>
+      <c r="W47" t="b">
+        <v>1</v>
+      </c>
+      <c r="X47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3040,19 +8143,126 @@
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48">
-        <v>2</v>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>6	6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N48">
         <v>16</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <v>1</v>
+      </c>
+      <c r="U48" t="b">
+        <v>1</v>
+      </c>
+      <c r="V48" t="b">
+        <v>0</v>
+      </c>
+      <c r="W48" t="b">
+        <v>1</v>
+      </c>
+      <c r="X48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3090,14 +8300,16 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3	4	4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49">
-        <v>2</v>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1	3	4</t>
+        </is>
       </c>
       <c r="L49">
         <v>3</v>
@@ -3109,6 +8321,111 @@
       </c>
       <c r="N49">
         <v>23</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3152,8 +8469,10 @@
       <c r="J50">
         <v>10</v>
       </c>
-      <c r="K50">
-        <v>0</v>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L50">
         <v>3</v>
@@ -3165,6 +8484,111 @@
       </c>
       <c r="N50">
         <v>15</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3208,19 +8632,126 @@
       <c r="J51">
         <v>4</v>
       </c>
-      <c r="K51">
-        <v>0</v>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N51">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="b">
+        <v>1</v>
+      </c>
+      <c r="U51" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51" t="b">
+        <v>0</v>
+      </c>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3264,19 +8795,126 @@
       <c r="J52">
         <v>4</v>
       </c>
-      <c r="K52">
-        <v>0</v>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N52">
         <v>20</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
+      </c>
+      <c r="W52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3317,16 +8955,129 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K53">
-        <v>2</v>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="L53">
         <v>4</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>6	6</t>
-        </is>
+          <t>1	2</t>
+        </is>
+      </c>
+      <c r="N53">
+        <v>37</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="b">
+        <v>0</v>
+      </c>
+      <c r="W53" t="b">
+        <v>1</v>
+      </c>
+      <c r="X53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW53" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
